--- a/series_sc/afiliaciones.xlsx
+++ b/series_sc/afiliaciones.xlsx
@@ -16,9 +16,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t>Afiliación</t>
-  </si>
-  <si>
     <t>name</t>
   </si>
   <si>
@@ -32,6 +29,9 @@
   </si>
   <si>
     <t>Obligatoria</t>
+  </si>
+  <si>
+    <t>Afiliacion</t>
   </si>
 </sst>
 </file>
@@ -70,11 +70,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -379,7 +380,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -388,27 +389,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
